--- a/Sara_data.xlsx
+++ b/Sara_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/zlr6_cornell_edu/Documents/Cornell/Hendry Lab/Pseudamonas Epiphytic Growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{59D55B25-45AA-0F48-9392-0F5E99553F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE433A26-8CF1-4340-8A28-08C31767EC02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1997EA-916F-0A4B-99BC-3E31313C952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +298,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -314,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -340,12 +352,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00D8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00D8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -560,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H39" sqref="H37:H39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -575,28 +702,28 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="1"/>
@@ -604,29 +731,29 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="16">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16">
+        <v>100</v>
+      </c>
+      <c r="D3" s="16">
         <v>147</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="16">
         <v>136</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="16">
         <v>121</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <f>AVERAGE(D3:F3)</f>
         <v>134.66666666666666</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="17">
         <f>G3*100</f>
         <v>13466.666666666666</v>
       </c>
@@ -635,29 +762,29 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="e">
+      <c r="B4" s="16">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="e">
         <f t="shared" ref="G4:G14" si="0">AVERAGE(D4:F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" t="e">
+      <c r="H4" s="17" t="e">
         <f t="shared" ref="H4:H14" si="1">G4*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -665,29 +792,29 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16">
         <v>180</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="16">
         <v>164</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="16">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>164.66666666666666</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="17">
         <f t="shared" si="1"/>
         <v>16466.666666666664</v>
       </c>
@@ -696,29 +823,29 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="e">
+      <c r="B6" s="16">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16">
+        <v>100</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" t="e">
+      <c r="H6" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -727,29 +854,29 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="e">
+      <c r="B7" s="16">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
+        <v>100</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" t="e">
+      <c r="H7" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -758,29 +885,29 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="e">
+      <c r="B8" s="16">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
+        <v>100</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" t="e">
+      <c r="H8" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -789,448 +916,469 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="16">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>100</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="16">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16">
+        <v>100</v>
+      </c>
+      <c r="D10" s="16">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="16">
         <v>14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="16">
         <v>24</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>1533.3333333333335</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="16">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
+        <v>100</v>
+      </c>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="16">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="e">
+      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" t="e">
+      <c r="H12" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="e">
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16">
+        <v>100</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" t="e">
+      <c r="H13" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="e">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>100</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" t="e">
+      <c r="H14" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
+        <v>100</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="16">
+        <v>10</v>
+      </c>
+      <c r="C18" s="16">
+        <v>100</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="16">
+        <v>10</v>
+      </c>
+      <c r="C19" s="16">
+        <v>100</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B20" s="16">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16">
+        <v>100</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B21" s="16">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
+        <v>100</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B22" s="16">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16">
+        <v>100</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B23" s="16">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16">
+        <v>100</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
         <v>1</v>
       </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
+      <c r="B24" s="16">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16">
+        <v>100</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>100</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
+      <c r="B25" s="16">
+        <v>10</v>
+      </c>
+      <c r="C25" s="16">
+        <v>100</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" s="16">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <v>100</v>
+      </c>
+      <c r="D26" s="16">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="16">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="16">
         <v>1</v>
       </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="B27" s="16">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16">
+        <v>100</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16">
         <v>63</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="16">
         <v>53</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="17">
         <f>AVERAGE(E27:F27)</f>
         <v>58</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="17">
         <f>G27*100</f>
         <v>5800</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>100</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" s="16">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16">
+        <v>100</v>
+      </c>
+      <c r="D28" s="16">
         <v>30</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="16">
         <v>19</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="16">
         <v>58</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="17">
         <f>AVERAGE(D28:F28)</f>
         <v>35.666666666666664</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="17">
         <f>G28*100</f>
         <v>3566.6666666666665</v>
       </c>
@@ -1265,25 +1413,26 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="4">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
-        <v>100</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="B31" s="18">
+        <v>10</v>
+      </c>
+      <c r="C31" s="18">
+        <v>100</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1304,25 +1453,26 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4"/>
+      <c r="B32" s="18">
+        <v>10</v>
+      </c>
+      <c r="C32" s="18">
+        <v>100</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1343,25 +1493,26 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4">
-        <v>100</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="A33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="18">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18">
+        <v>100</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2354,140 +2505,147 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="1">
-        <v>10</v>
-      </c>
-      <c r="C70" s="1">
-        <v>100</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="B70" s="16">
+        <v>10</v>
+      </c>
+      <c r="C70" s="16">
+        <v>100</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="1">
-        <v>10</v>
-      </c>
-      <c r="C71" s="1">
-        <v>100</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B71" s="16">
+        <v>10</v>
+      </c>
+      <c r="C71" s="16">
+        <v>100</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="1">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1">
-        <v>100</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B72" s="16">
+        <v>10</v>
+      </c>
+      <c r="C72" s="16">
+        <v>100</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="1">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>100</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B73" s="16">
+        <v>10</v>
+      </c>
+      <c r="C73" s="16">
+        <v>100</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="1">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1">
-        <v>100</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="B74" s="16">
+        <v>10</v>
+      </c>
+      <c r="C74" s="16">
+        <v>100</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="16">
         <v>23</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="16">
         <v>2</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="17">
         <f>E74*10</f>
         <v>230</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="17">
         <f>G74*100</f>
         <v>23000</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="1">
-        <v>10</v>
-      </c>
-      <c r="C75" s="1">
-        <v>100</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="B75" s="16">
+        <v>10</v>
+      </c>
+      <c r="C75" s="16">
+        <v>100</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="16">
         <v>65</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="16">
         <v>3</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="17">
         <f>E75*10</f>
         <v>650</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="17">
         <f>G75*100</f>
         <v>65000</v>
       </c>
@@ -3267,6 +3425,26 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="b728a">
+      <formula>NOT(ISERROR(SEARCH("b728a",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="205">
+      <formula>NOT(ISERROR(SEARCH("205",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="215">
+      <formula>NOT(ISERROR(SEARCH("215",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="216 ">
+      <formula>NOT(ISERROR(SEARCH("216 ",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="220 ">
+      <formula>NOT(ISERROR(SEARCH("220 ",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="227">
+      <formula>NOT(ISERROR(SEARCH("227",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3275,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F40F98-22C2-AD4C-B12F-7F1E593EB58C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3674,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659CAF78-76CC-1F40-AF94-483A11245B2C}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3761,7 +3939,7 @@
         <v>250000</v>
       </c>
       <c r="E3" s="9">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" ref="E3:E9" si="0">AVERAGE(B3:D3)</f>
         <v>211333.33333333334</v>
       </c>
       <c r="F3" s="9">
@@ -3774,7 +3952,7 @@
         <v>400</v>
       </c>
       <c r="I3" s="9">
-        <f>AVERAGE(F3:H3)</f>
+        <f t="shared" ref="I3:I9" si="1">AVERAGE(F3:H3)</f>
         <v>400</v>
       </c>
       <c r="J3" s="9">
@@ -3809,7 +3987,7 @@
         <v>30000</v>
       </c>
       <c r="E4" s="9">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
       <c r="F4" s="9">
@@ -3822,7 +4000,7 @@
         <v>50000</v>
       </c>
       <c r="I4" s="9">
-        <f>AVERAGE(F4:H4)</f>
+        <f t="shared" si="1"/>
         <v>110000</v>
       </c>
       <c r="J4" s="9"/>
@@ -3848,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F5" s="9">
@@ -3861,7 +4039,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="9">
-        <f>AVERAGE(F5:H5)</f>
+        <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
       <c r="J5" s="9">
@@ -3896,7 +4074,7 @@
         <v>200</v>
       </c>
       <c r="E6" s="9">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>6633.333333333333</v>
       </c>
       <c r="F6" s="9">
@@ -3909,7 +4087,7 @@
         <v>3900</v>
       </c>
       <c r="I6" s="9">
-        <f>AVERAGE(F6:H6)</f>
+        <f t="shared" si="1"/>
         <v>2866.6666666666665</v>
       </c>
       <c r="J6" s="9">
@@ -3944,7 +4122,7 @@
         <v>70000</v>
       </c>
       <c r="E7" s="9">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>290000</v>
       </c>
       <c r="F7" s="9">
@@ -3957,7 +4135,7 @@
         <v>2800</v>
       </c>
       <c r="I7" s="9">
-        <f>AVERAGE(F7:H7)</f>
+        <f t="shared" si="1"/>
         <v>114266.66666666667</v>
       </c>
       <c r="J7" s="9">
@@ -3992,7 +4170,7 @@
         <v>13000</v>
       </c>
       <c r="E8" s="9">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>35166.666666666664</v>
       </c>
       <c r="F8" s="9">
@@ -4005,7 +4183,7 @@
         <v>7000</v>
       </c>
       <c r="I8" s="9">
-        <f>AVERAGE(F8:H8)</f>
+        <f t="shared" si="1"/>
         <v>165666.66666666666</v>
       </c>
       <c r="J8" s="9">
@@ -4040,7 +4218,7 @@
         <v>600</v>
       </c>
       <c r="E9" s="9">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>31533.333333333332</v>
       </c>
       <c r="F9" s="9">
@@ -4053,7 +4231,7 @@
         <v>900</v>
       </c>
       <c r="I9" s="9">
-        <f>AVERAGE(F9:H9)</f>
+        <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="J9" s="9">
